--- a/Src/lbm/Modele/lbm_lst_tablespaces.xlsx
+++ b/Src/lbm/Modele/lbm_lst_tablespaces.xlsx
@@ -12,7 +12,7 @@
     <sheet name="liste succinte" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lbm_lst_tablespaces!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">lbm_lst_tablespaces!$A$1:$S$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'liste succinte'!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -986,10 +986,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1508,7 +1509,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
+  <autoFilter ref="A1:S9">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="AUTO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
